--- a/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.25734624989147</v>
+        <v>14.32579081856069</v>
       </c>
       <c r="C2">
-        <v>9.944611092696876</v>
+        <v>5.687541871535383</v>
       </c>
       <c r="D2">
-        <v>10.65245796746349</v>
+        <v>11.58507149001378</v>
       </c>
       <c r="E2">
-        <v>7.033014037482754</v>
+        <v>7.975513243881879</v>
       </c>
       <c r="F2">
-        <v>64.26700530194968</v>
+        <v>65.83384032270104</v>
       </c>
       <c r="G2">
-        <v>2.104007160515138</v>
+        <v>2.15267539594192</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.04253335091426</v>
+        <v>10.43688173961992</v>
       </c>
       <c r="L2">
-        <v>7.150205869201415</v>
+        <v>6.858638598851257</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.94139353420923</v>
+        <v>13.5851492861791</v>
       </c>
       <c r="C3">
-        <v>9.280651435977378</v>
+        <v>5.458220115828103</v>
       </c>
       <c r="D3">
-        <v>10.24211424381887</v>
+        <v>11.18524154963079</v>
       </c>
       <c r="E3">
-        <v>6.933658422702704</v>
+        <v>7.786727954724062</v>
       </c>
       <c r="F3">
-        <v>60.69363333974835</v>
+        <v>62.51868706638355</v>
       </c>
       <c r="G3">
-        <v>2.118275154177191</v>
+        <v>2.163989378958572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.83256845240463</v>
+        <v>9.742404132288209</v>
       </c>
       <c r="L3">
-        <v>6.937794462248554</v>
+        <v>6.692896900255289</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.13936418831153</v>
+        <v>13.12864264467924</v>
       </c>
       <c r="C4">
-        <v>8.858349788935387</v>
+        <v>5.314590654967708</v>
       </c>
       <c r="D4">
-        <v>9.987818263968185</v>
+        <v>10.93534780024246</v>
       </c>
       <c r="E4">
-        <v>6.875027963043902</v>
+        <v>7.672786539266624</v>
       </c>
       <c r="F4">
-        <v>58.44835314044565</v>
+        <v>60.42826334310919</v>
       </c>
       <c r="G4">
-        <v>2.127165431610575</v>
+        <v>2.171073929288055</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.05796933581819</v>
+        <v>9.446140022243704</v>
       </c>
       <c r="L4">
-        <v>6.811290636269394</v>
+        <v>6.594666534829974</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.80887779760866</v>
+        <v>12.94239358948493</v>
       </c>
       <c r="C5">
-        <v>8.682431574672954</v>
+        <v>5.255297947558936</v>
       </c>
       <c r="D5">
-        <v>9.883592477637963</v>
+        <v>10.83242386970723</v>
       </c>
       <c r="E5">
-        <v>6.851703700026122</v>
+        <v>7.626867207074615</v>
       </c>
       <c r="F5">
-        <v>57.52073160041532</v>
+        <v>59.56304434711285</v>
       </c>
       <c r="G5">
-        <v>2.130826220585316</v>
+        <v>2.173998644730117</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73410741601132</v>
+        <v>9.326347082050269</v>
       </c>
       <c r="L5">
-        <v>6.760730651099572</v>
+        <v>6.555536554947569</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.75378717998727</v>
+        <v>12.91146126278023</v>
       </c>
       <c r="C6">
-        <v>8.652985472460209</v>
+        <v>5.245404990354953</v>
       </c>
       <c r="D6">
-        <v>9.866249801022974</v>
+        <v>10.81526824092999</v>
       </c>
       <c r="E6">
-        <v>6.847864242501552</v>
+        <v>7.61927382662406</v>
       </c>
       <c r="F6">
-        <v>57.36594740630833</v>
+        <v>59.41858512483989</v>
       </c>
       <c r="G6">
-        <v>2.131436527971341</v>
+        <v>2.174486653811517</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.67982823942449</v>
+        <v>9.306516965804043</v>
       </c>
       <c r="L6">
-        <v>6.752395358912235</v>
+        <v>6.549093717487757</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13492162209099</v>
+        <v>13.12613138307426</v>
       </c>
       <c r="C7">
-        <v>8.855992968195302</v>
+        <v>5.313794164190087</v>
       </c>
       <c r="D7">
-        <v>9.986415059833501</v>
+        <v>10.93396411813949</v>
       </c>
       <c r="E7">
-        <v>6.874711139798144</v>
+        <v>7.672165155720045</v>
       </c>
       <c r="F7">
-        <v>58.43589368180676</v>
+        <v>60.41664805514591</v>
       </c>
       <c r="G7">
-        <v>2.127214642076455</v>
+        <v>2.171113216480998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.0536351465355</v>
+        <v>9.444520444404253</v>
       </c>
       <c r="L7">
-        <v>6.810604740592745</v>
+        <v>6.594135156672873</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78423734927983</v>
+        <v>14.07089787362212</v>
       </c>
       <c r="C8">
-        <v>9.71861652829922</v>
+        <v>5.609024364126837</v>
       </c>
       <c r="D8">
-        <v>10.51144685511544</v>
+        <v>11.44812825897296</v>
       </c>
       <c r="E8">
-        <v>6.998245084726188</v>
+        <v>7.91001949060368</v>
       </c>
       <c r="F8">
-        <v>63.04560475715072</v>
+        <v>64.70239318580717</v>
       </c>
       <c r="G8">
-        <v>2.108903235136537</v>
+        <v>2.156549806651417</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.63175694399691</v>
+        <v>10.17240992550722</v>
       </c>
       <c r="L8">
-        <v>7.076155048268674</v>
+        <v>6.800762885425737</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.27043108627734</v>
+        <v>15.9027015933831</v>
       </c>
       <c r="C9">
-        <v>11.30227900015606</v>
+        <v>6.168328038109225</v>
       </c>
       <c r="D9">
-        <v>11.52391829142175</v>
+        <v>12.42151396673525</v>
       </c>
       <c r="E9">
-        <v>7.26083377017024</v>
+        <v>8.391582819242691</v>
       </c>
       <c r="F9">
-        <v>71.6808414664366</v>
+        <v>72.65962442572125</v>
       </c>
       <c r="G9">
-        <v>2.073749455043492</v>
+        <v>2.128929869191275</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.48774362475453</v>
+        <v>12.00346339225549</v>
       </c>
       <c r="L9">
-        <v>7.628163914877681</v>
+        <v>7.233695204558948</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.71716432937162</v>
+        <v>17.36582835474917</v>
       </c>
       <c r="C10">
-        <v>12.41377737345626</v>
+        <v>6.57185419779966</v>
       </c>
       <c r="D10">
-        <v>12.26127646254933</v>
+        <v>13.11649448626354</v>
       </c>
       <c r="E10">
-        <v>7.468652099854342</v>
+        <v>8.754321133456534</v>
       </c>
       <c r="F10">
-        <v>77.79964477338058</v>
+        <v>78.2298831655396</v>
       </c>
       <c r="G10">
-        <v>2.047936087408587</v>
+        <v>2.108968530123279</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.46119980301601</v>
+        <v>13.25631097091492</v>
       </c>
       <c r="L10">
-        <v>8.054029733851646</v>
+        <v>7.568637568873937</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.80642821764147</v>
+        <v>18.07174020233736</v>
       </c>
       <c r="C11">
-        <v>12.91204353929764</v>
+        <v>6.755074316455886</v>
       </c>
       <c r="D11">
-        <v>12.5967952350044</v>
+        <v>13.42885652250724</v>
       </c>
       <c r="E11">
-        <v>7.567134816715343</v>
+        <v>8.921366261519442</v>
       </c>
       <c r="F11">
-        <v>80.5443493341772</v>
+        <v>80.70666821016749</v>
       </c>
       <c r="G11">
-        <v>2.036073598893368</v>
+        <v>2.099896865813905</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.33754583720181</v>
+        <v>13.80865636987517</v>
       </c>
       <c r="L11">
-        <v>8.252817649477162</v>
+        <v>7.72481476315632</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.21612380341874</v>
+        <v>18.33652366991907</v>
       </c>
       <c r="C12">
-        <v>13.10007258212013</v>
+        <v>6.824530470067851</v>
       </c>
       <c r="D12">
-        <v>12.72403660864262</v>
+        <v>13.54666729633148</v>
       </c>
       <c r="E12">
-        <v>7.605069188352173</v>
+        <v>8.984933355639672</v>
       </c>
       <c r="F12">
-        <v>81.57937032044002</v>
+        <v>81.63677740541698</v>
       </c>
       <c r="G12">
-        <v>2.031551821051814</v>
+        <v>2.096456864400191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.66689816792767</v>
+        <v>14.01552341680231</v>
       </c>
       <c r="L12">
-        <v>8.32890730512718</v>
+        <v>7.784527466350551</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.12800079616138</v>
+        <v>18.27960632091942</v>
       </c>
       <c r="C13">
-        <v>13.05959890403738</v>
+        <v>6.809566322680944</v>
       </c>
       <c r="D13">
-        <v>12.6966212333909</v>
+        <v>13.52131435508624</v>
       </c>
       <c r="E13">
-        <v>7.59686948016348</v>
+        <v>8.971228809581971</v>
       </c>
       <c r="F13">
-        <v>81.35662931620391</v>
+        <v>81.43679982853861</v>
       </c>
       <c r="G13">
-        <v>2.032527212518816</v>
+        <v>2.097198047186784</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.59606716108557</v>
+        <v>13.9710688631567</v>
       </c>
       <c r="L13">
-        <v>8.312482166594053</v>
+        <v>7.771641317940514</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.84018580849518</v>
+        <v>18.0935733738344</v>
       </c>
       <c r="C14">
-        <v>12.92752329049713</v>
+        <v>6.760786234062836</v>
       </c>
       <c r="D14">
-        <v>12.60725851876061</v>
+        <v>13.43855790097058</v>
       </c>
       <c r="E14">
-        <v>7.570242371458426</v>
+        <v>8.926589591294116</v>
       </c>
       <c r="F14">
-        <v>80.62957968535066</v>
+        <v>80.7833420349786</v>
       </c>
       <c r="G14">
-        <v>2.035702264886153</v>
+        <v>2.0996139878083</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.36468829637557</v>
+        <v>13.82571997155223</v>
       </c>
       <c r="L14">
-        <v>8.259060692232966</v>
+        <v>7.729715720999995</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.6635492968229</v>
+        <v>17.97930066920289</v>
       </c>
       <c r="C15">
-        <v>12.84655144594511</v>
+        <v>6.730920784490298</v>
       </c>
       <c r="D15">
-        <v>12.55255175105857</v>
+        <v>13.38780793386438</v>
       </c>
       <c r="E15">
-        <v>7.5540184517756</v>
+        <v>8.899287985660473</v>
       </c>
       <c r="F15">
-        <v>80.18371873091927</v>
+        <v>80.3820806243388</v>
       </c>
       <c r="G15">
-        <v>2.037642796483356</v>
+        <v>2.101093007894912</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.22265525413293</v>
+        <v>13.73639829241061</v>
       </c>
       <c r="L15">
-        <v>8.22644745875755</v>
+        <v>7.704110473123313</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.64555109546868</v>
+        <v>17.319328316101</v>
       </c>
       <c r="C16">
-        <v>12.3810992314631</v>
+        <v>6.559883555648191</v>
       </c>
       <c r="D16">
-        <v>12.23936517674229</v>
+        <v>13.09601022793073</v>
       </c>
       <c r="E16">
-        <v>7.46230136679625</v>
+        <v>8.743446572727562</v>
       </c>
       <c r="F16">
-        <v>77.61958913408283</v>
+        <v>78.0669015465875</v>
       </c>
       <c r="G16">
-        <v>2.048707902453041</v>
+        <v>2.109561066086808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.40354491091026</v>
+        <v>13.21987942365066</v>
       </c>
       <c r="L16">
-        <v>8.041146875749543</v>
+        <v>7.55850945164145</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.01536289956609</v>
+        <v>16.90970185273909</v>
       </c>
       <c r="C17">
-        <v>12.0939383210787</v>
+        <v>6.454951550890486</v>
       </c>
       <c r="D17">
-        <v>12.04736795781687</v>
+        <v>12.91607524326804</v>
       </c>
       <c r="E17">
-        <v>7.407094137467167</v>
+        <v>8.648373331964631</v>
       </c>
       <c r="F17">
-        <v>76.03741596817805</v>
+        <v>76.63222197446915</v>
       </c>
       <c r="G17">
-        <v>2.055457110230719</v>
+        <v>2.114754176817196</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.89594624731011</v>
+        <v>12.89866584573148</v>
       </c>
       <c r="L17">
-        <v>7.928817969107604</v>
+        <v>7.470176982837991</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.65061287241591</v>
+        <v>16.67228112289239</v>
       </c>
       <c r="C18">
-        <v>11.92804980101843</v>
+        <v>6.394556331087575</v>
       </c>
       <c r="D18">
-        <v>11.93693168598622</v>
+        <v>12.81221937323465</v>
       </c>
       <c r="E18">
-        <v>7.375706506835638</v>
+        <v>8.593879414965878</v>
       </c>
       <c r="F18">
-        <v>75.12364827550454</v>
+        <v>75.80161682308106</v>
       </c>
       <c r="G18">
-        <v>2.059328661835316</v>
+        <v>2.117742356240936</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.60193577649015</v>
+        <v>12.7122417650618</v>
       </c>
       <c r="L18">
-        <v>7.864678767298649</v>
+        <v>7.419727007718971</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.52670567589254</v>
+        <v>16.59157711142908</v>
       </c>
       <c r="C19">
-        <v>11.87174785376912</v>
+        <v>6.374097014578245</v>
       </c>
       <c r="D19">
-        <v>11.89953453527838</v>
+        <v>12.77699157173831</v>
       </c>
       <c r="E19">
-        <v>7.365140070885327</v>
+        <v>8.575460914263482</v>
       </c>
       <c r="F19">
-        <v>74.81358744618973</v>
+        <v>75.51944803227974</v>
       </c>
       <c r="G19">
-        <v>2.06063805777734</v>
+        <v>2.118754485781962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.5020203911087</v>
+        <v>12.6488282238239</v>
       </c>
       <c r="L19">
-        <v>7.843040856164543</v>
+        <v>7.402706218817285</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.08267958361285</v>
+        <v>16.95349366089143</v>
       </c>
       <c r="C20">
-        <v>12.1245790440437</v>
+        <v>6.466125158041137</v>
       </c>
       <c r="D20">
-        <v>12.06780574941213</v>
+        <v>12.93526665343323</v>
       </c>
       <c r="E20">
-        <v>7.412932665052149</v>
+        <v>8.658474311037583</v>
       </c>
       <c r="F20">
-        <v>76.20622064298902</v>
+        <v>76.78550402781994</v>
       </c>
       <c r="G20">
-        <v>2.054739806485673</v>
+        <v>2.11420127407897</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.95018964969518</v>
+        <v>12.93303087540864</v>
       </c>
       <c r="L20">
-        <v>7.940726471288381</v>
+        <v>7.479543092728658</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.92479388732114</v>
+        <v>18.14828243490391</v>
       </c>
       <c r="C21">
-        <v>12.96633120535657</v>
+        <v>6.775111008940573</v>
       </c>
       <c r="D21">
-        <v>12.63349977935751</v>
+        <v>13.46287766753443</v>
       </c>
       <c r="E21">
-        <v>7.578045331106455</v>
+        <v>8.939692575632931</v>
       </c>
       <c r="F21">
-        <v>80.84323784185129</v>
+        <v>80.97548574823892</v>
       </c>
       <c r="G21">
-        <v>2.034770592619003</v>
+        <v>2.098904548972537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.43271263404317</v>
+        <v>13.8684727049257</v>
       </c>
       <c r="L21">
-        <v>8.274728967096216</v>
+        <v>7.742014512605899</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.1128900531187</v>
+        <v>18.91453778058195</v>
       </c>
       <c r="C22">
-        <v>13.51290616283994</v>
+        <v>6.977559511819669</v>
       </c>
       <c r="D22">
-        <v>13.00442678236507</v>
+        <v>13.80498852858204</v>
       </c>
       <c r="E22">
-        <v>7.689739570954678</v>
+        <v>9.125313286000097</v>
       </c>
       <c r="F22">
-        <v>83.84936024360086</v>
+        <v>83.66876776309959</v>
       </c>
       <c r="G22">
-        <v>2.021538757883985</v>
+        <v>2.088876067927532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.3873998161715</v>
+        <v>14.46659841555232</v>
       </c>
       <c r="L22">
-        <v>8.497822217668839</v>
+        <v>7.916908413220409</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.47998200795989</v>
+        <v>18.50682400871507</v>
       </c>
       <c r="C23">
-        <v>13.22135840933767</v>
+        <v>6.869415800398233</v>
       </c>
       <c r="D23">
-        <v>12.80627373823371</v>
+        <v>13.62261656950563</v>
       </c>
       <c r="E23">
-        <v>7.629751250869895</v>
+        <v>9.026067585047716</v>
       </c>
       <c r="F23">
-        <v>82.24666299586228</v>
+        <v>82.23525388716493</v>
       </c>
       <c r="G23">
-        <v>2.028622152443103</v>
+        <v>2.094233535137568</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.87894767301422</v>
+        <v>14.14849301137857</v>
       </c>
       <c r="L23">
-        <v>8.37827653974589</v>
+        <v>7.823246017529531</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.05225337656565</v>
+        <v>16.93370138373922</v>
       </c>
       <c r="C24">
-        <v>12.11072888145573</v>
+        <v>6.461073792452781</v>
       </c>
       <c r="D24">
-        <v>12.05856600599262</v>
+        <v>12.92659149541708</v>
       </c>
       <c r="E24">
-        <v>7.410291976422021</v>
+        <v>8.653907145811797</v>
       </c>
       <c r="F24">
-        <v>76.12991708032092</v>
+        <v>76.71622327188236</v>
       </c>
       <c r="G24">
-        <v>2.055064125572299</v>
+        <v>2.114451232893283</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.92567305574534</v>
+        <v>12.91749992642111</v>
       </c>
       <c r="L24">
-        <v>7.935341272336055</v>
+        <v>7.475307637170962</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.34482109961274</v>
+        <v>15.41014214051723</v>
       </c>
       <c r="C25">
-        <v>10.88413727657813</v>
+        <v>6.018694315053163</v>
       </c>
       <c r="D25">
-        <v>11.2515465973493</v>
+        <v>12.1618646779019</v>
       </c>
       <c r="E25">
-        <v>7.18738661891163</v>
+        <v>8.259739600693354</v>
       </c>
       <c r="F25">
-        <v>69.38683718248781</v>
+        <v>70.5557895757569</v>
       </c>
       <c r="G25">
-        <v>2.083220669581569</v>
+        <v>2.136324496351662</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.73873413446041</v>
+        <v>11.5251038197662</v>
       </c>
       <c r="L25">
-        <v>7.475410732293199</v>
+        <v>7.113631862543624</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.32579081856069</v>
+        <v>13.84357529741722</v>
       </c>
       <c r="C2">
-        <v>5.687541871535383</v>
+        <v>6.935250105312065</v>
       </c>
       <c r="D2">
-        <v>11.58507149001378</v>
+        <v>5.175206104822751</v>
       </c>
       <c r="E2">
-        <v>7.975513243881879</v>
+        <v>7.922521438531287</v>
       </c>
       <c r="F2">
-        <v>65.83384032270104</v>
+        <v>25.36611209801755</v>
       </c>
       <c r="G2">
-        <v>2.15267539594192</v>
+        <v>35.4286661379596</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.534741024200056</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.91599400773297</v>
       </c>
       <c r="K2">
-        <v>10.43688173961992</v>
+        <v>19.6923629232518</v>
       </c>
       <c r="L2">
-        <v>6.858638598851257</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.61149484108796</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.274004542965122</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.5851492861791</v>
+        <v>12.92101090123169</v>
       </c>
       <c r="C3">
-        <v>5.458220115828103</v>
+        <v>6.664426992430987</v>
       </c>
       <c r="D3">
-        <v>11.18524154963079</v>
+        <v>5.118080207757782</v>
       </c>
       <c r="E3">
-        <v>7.786727954724062</v>
+        <v>7.621916067134578</v>
       </c>
       <c r="F3">
-        <v>62.51868706638355</v>
+        <v>24.77665971560752</v>
       </c>
       <c r="G3">
-        <v>2.163989378958572</v>
+        <v>34.5619757768208</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.788233689811049</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.84748493217555</v>
       </c>
       <c r="K3">
-        <v>9.742404132288209</v>
+        <v>19.5488605160065</v>
       </c>
       <c r="L3">
-        <v>6.692896900255289</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.92556554948953</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.960168957634491</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.12864264467924</v>
+        <v>12.32089601249517</v>
       </c>
       <c r="C4">
-        <v>5.314590654967708</v>
+        <v>6.491970098089721</v>
       </c>
       <c r="D4">
-        <v>10.93534780024246</v>
+        <v>5.08170333211782</v>
       </c>
       <c r="E4">
-        <v>7.672786539266624</v>
+        <v>7.430824423254083</v>
       </c>
       <c r="F4">
-        <v>60.42826334310919</v>
+        <v>24.42261003882729</v>
       </c>
       <c r="G4">
-        <v>2.171073929288055</v>
+        <v>34.04100462306713</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.949056012056426</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.81040636388108</v>
       </c>
       <c r="K4">
-        <v>9.446140022243704</v>
+        <v>19.46886548508499</v>
       </c>
       <c r="L4">
-        <v>6.594666534829974</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.48189646846336</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.760120043882037</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94239358948493</v>
+        <v>12.06783756291412</v>
       </c>
       <c r="C5">
-        <v>5.255297947558936</v>
+        <v>6.42016565950735</v>
       </c>
       <c r="D5">
-        <v>10.83242386970723</v>
+        <v>5.066557654241217</v>
       </c>
       <c r="E5">
-        <v>7.626867207074615</v>
+        <v>7.351351268554603</v>
       </c>
       <c r="F5">
-        <v>59.56304434711285</v>
+        <v>24.28043187482722</v>
       </c>
       <c r="G5">
-        <v>2.173998644730117</v>
+        <v>33.8316843762635</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.015919406361522</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.79652189655703</v>
       </c>
       <c r="K5">
-        <v>9.326347082050269</v>
+        <v>19.43826255115546</v>
       </c>
       <c r="L5">
-        <v>6.555536554947569</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.29547197432562</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.676810303551001</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91146126278023</v>
+        <v>12.02530237464957</v>
       </c>
       <c r="C6">
-        <v>5.245404990354953</v>
+        <v>6.40815121066038</v>
       </c>
       <c r="D6">
-        <v>10.81526824092999</v>
+        <v>5.064023452550422</v>
       </c>
       <c r="E6">
-        <v>7.61927382662406</v>
+        <v>7.338059294537884</v>
       </c>
       <c r="F6">
-        <v>59.41858512483989</v>
+        <v>24.25695356398133</v>
       </c>
       <c r="G6">
-        <v>2.174486653811517</v>
+        <v>33.79711172697048</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.027102888945981</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.79428954559991</v>
       </c>
       <c r="K6">
-        <v>9.306516965804043</v>
+        <v>19.43330012607721</v>
       </c>
       <c r="L6">
-        <v>6.549093717487757</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.26417782007498</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.662870755492308</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12613138307426</v>
+        <v>12.31751767785026</v>
       </c>
       <c r="C7">
-        <v>5.313794164190087</v>
+        <v>6.491007863398133</v>
       </c>
       <c r="D7">
-        <v>10.93396411813949</v>
+        <v>5.08150036787079</v>
       </c>
       <c r="E7">
-        <v>7.672165155720045</v>
+        <v>7.429759051627325</v>
       </c>
       <c r="F7">
-        <v>60.41664805514591</v>
+        <v>24.42068391595078</v>
       </c>
       <c r="G7">
-        <v>2.171113216480998</v>
+        <v>34.03816937213367</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.94995234950986</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.81021419011479</v>
       </c>
       <c r="K7">
-        <v>9.444520444404253</v>
+        <v>19.46844474409847</v>
       </c>
       <c r="L7">
-        <v>6.594135156672873</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.47940500600281</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.759003652288197</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.07089787362212</v>
+        <v>13.53243372463339</v>
       </c>
       <c r="C8">
-        <v>5.609024364126837</v>
+        <v>6.843163911810881</v>
       </c>
       <c r="D8">
-        <v>11.44812825897296</v>
+        <v>5.155782374786747</v>
       </c>
       <c r="E8">
-        <v>7.91001949060368</v>
+        <v>7.820246032183229</v>
       </c>
       <c r="F8">
-        <v>64.70239318580717</v>
+        <v>25.16130624102593</v>
       </c>
       <c r="G8">
-        <v>2.156549806651417</v>
+        <v>35.12761236684545</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.621086383055782</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.89132034359542</v>
       </c>
       <c r="K8">
-        <v>10.17240992550722</v>
+        <v>19.64117233002074</v>
       </c>
       <c r="L8">
-        <v>6.800762885425737</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.37967315216112</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.167353379671623</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9027015933831</v>
+        <v>15.64988667943433</v>
       </c>
       <c r="C9">
-        <v>6.168328038109225</v>
+        <v>7.484015838289981</v>
       </c>
       <c r="D9">
-        <v>12.42151396673525</v>
+        <v>5.290897540245307</v>
       </c>
       <c r="E9">
-        <v>8.391582819242691</v>
+        <v>8.53297382125335</v>
       </c>
       <c r="F9">
-        <v>72.65962442572125</v>
+        <v>26.67093286668908</v>
       </c>
       <c r="G9">
-        <v>2.128929869191275</v>
+        <v>37.34538270066039</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.016057083112364</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.09116452060312</v>
       </c>
       <c r="K9">
-        <v>12.00346339225549</v>
+        <v>20.04620991227653</v>
       </c>
       <c r="L9">
-        <v>7.233695204558948</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.96575301197782</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.907620699730654</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.36582835474917</v>
+        <v>17.02705042377124</v>
       </c>
       <c r="C10">
-        <v>6.57185419779966</v>
+        <v>7.973086912506953</v>
       </c>
       <c r="D10">
-        <v>13.11649448626354</v>
+        <v>5.403987920342062</v>
       </c>
       <c r="E10">
-        <v>8.754321133456534</v>
+        <v>8.85909027246192</v>
       </c>
       <c r="F10">
-        <v>78.2298831655396</v>
+        <v>27.59128892309171</v>
       </c>
       <c r="G10">
-        <v>2.108968530123279</v>
+        <v>38.62994100536246</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.630863167541958</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.18766033863364</v>
       </c>
       <c r="K10">
-        <v>13.25631097091492</v>
+        <v>20.21780477423867</v>
       </c>
       <c r="L10">
-        <v>7.568637568873937</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.03255648559807</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.279430138947044</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.07174020233736</v>
+        <v>17.45117596425173</v>
       </c>
       <c r="C11">
-        <v>6.755074316455886</v>
+        <v>8.638399680400829</v>
       </c>
       <c r="D11">
-        <v>13.42885652250724</v>
+        <v>5.659413884440942</v>
       </c>
       <c r="E11">
-        <v>8.921366261519442</v>
+        <v>7.71535542065484</v>
       </c>
       <c r="F11">
-        <v>80.70666821016749</v>
+        <v>26.14355717767884</v>
       </c>
       <c r="G11">
-        <v>2.099896865813905</v>
+        <v>35.90555774920223</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.680181351769052</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.57655268456752</v>
       </c>
       <c r="K11">
-        <v>13.80865636987517</v>
+        <v>18.86144216410438</v>
       </c>
       <c r="L11">
-        <v>7.72481476315632</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.59186072627529</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.328407640494891</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.33652366991907</v>
+        <v>17.52994006124452</v>
       </c>
       <c r="C12">
-        <v>6.824530470067851</v>
+        <v>9.134342657202602</v>
       </c>
       <c r="D12">
-        <v>13.54666729633148</v>
+        <v>5.885400083384355</v>
       </c>
       <c r="E12">
-        <v>8.984933355639672</v>
+        <v>6.898666712186061</v>
       </c>
       <c r="F12">
-        <v>81.63677740541698</v>
+        <v>24.70385903261031</v>
       </c>
       <c r="G12">
-        <v>2.096456864400191</v>
+        <v>33.30040820230042</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.099023353178896</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.04013793453524</v>
       </c>
       <c r="K12">
-        <v>14.01552341680231</v>
+        <v>17.69523182922551</v>
       </c>
       <c r="L12">
-        <v>7.784527466350551</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.85112969204545</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.492105063549222</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27960632091942</v>
+        <v>17.35060393198345</v>
       </c>
       <c r="C13">
-        <v>6.809566322680944</v>
+        <v>9.534263635286141</v>
       </c>
       <c r="D13">
-        <v>13.52131435508624</v>
+        <v>6.097205504538237</v>
       </c>
       <c r="E13">
-        <v>8.971228809581971</v>
+        <v>6.350742115540042</v>
       </c>
       <c r="F13">
-        <v>81.43679982853861</v>
+        <v>23.15677212251323</v>
       </c>
       <c r="G13">
-        <v>2.097198047186784</v>
+        <v>30.58456814111671</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.54652403093572</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.52811149994219</v>
       </c>
       <c r="K13">
-        <v>13.9710688631567</v>
+        <v>16.60875957603959</v>
       </c>
       <c r="L13">
-        <v>7.771641317940514</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.9026912373431</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.699868917089596</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0935733738344</v>
+        <v>17.10609172556077</v>
       </c>
       <c r="C14">
-        <v>6.760786234062836</v>
+        <v>9.776465362535165</v>
       </c>
       <c r="D14">
-        <v>13.43855790097058</v>
+        <v>6.240763272960769</v>
       </c>
       <c r="E14">
-        <v>8.926589591294116</v>
+        <v>6.170198390747612</v>
       </c>
       <c r="F14">
-        <v>80.7833420349786</v>
+        <v>22.01919956522568</v>
       </c>
       <c r="G14">
-        <v>2.0996139878083</v>
+        <v>28.62716068405936</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.568091918869451</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.18490782644077</v>
       </c>
       <c r="K14">
-        <v>13.82571997155223</v>
+        <v>15.89972831381988</v>
       </c>
       <c r="L14">
-        <v>7.729715720999995</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.84599338066315</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.19019351636325</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.97930066920289</v>
+        <v>16.99010841485884</v>
       </c>
       <c r="C15">
-        <v>6.730920784490298</v>
+        <v>9.811506991057158</v>
       </c>
       <c r="D15">
-        <v>13.38780793386438</v>
+        <v>6.268227686187242</v>
       </c>
       <c r="E15">
-        <v>8.899287985660473</v>
+        <v>6.150638343098227</v>
       </c>
       <c r="F15">
-        <v>80.3820806243388</v>
+        <v>21.72169816566457</v>
       </c>
       <c r="G15">
-        <v>2.101093007894912</v>
+        <v>28.131278551737</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.806488239500504</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.10734390117885</v>
       </c>
       <c r="K15">
-        <v>13.73639829241061</v>
+        <v>15.74434572292664</v>
       </c>
       <c r="L15">
-        <v>7.704110473123313</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.78700890785925</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.070724079158015</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.319328316101</v>
+        <v>16.45080370964496</v>
       </c>
       <c r="C16">
-        <v>6.559883555648191</v>
+        <v>9.546444793520575</v>
       </c>
       <c r="D16">
-        <v>13.09601022793073</v>
+        <v>6.173286474141122</v>
       </c>
       <c r="E16">
-        <v>8.743446572727562</v>
+        <v>6.08595671842414</v>
       </c>
       <c r="F16">
-        <v>78.0669015465875</v>
+        <v>21.58260224207337</v>
       </c>
       <c r="G16">
-        <v>2.109561066086808</v>
+        <v>28.03216547231732</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.61776330088921</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.1671713562716</v>
       </c>
       <c r="K16">
-        <v>13.21987942365066</v>
+        <v>15.8901411493978</v>
       </c>
       <c r="L16">
-        <v>7.55850945164145</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.3444200670354</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.036669036548537</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.90970185273909</v>
+        <v>16.16452956457361</v>
       </c>
       <c r="C17">
-        <v>6.454951550890486</v>
+        <v>9.203331522539262</v>
       </c>
       <c r="D17">
-        <v>12.91607524326804</v>
+        <v>6.021212029409082</v>
       </c>
       <c r="E17">
-        <v>8.648373331964631</v>
+        <v>6.0947186365919</v>
       </c>
       <c r="F17">
-        <v>76.63222197446915</v>
+        <v>22.09585826631601</v>
       </c>
       <c r="G17">
-        <v>2.114754176817196</v>
+        <v>29.01816673757277</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.902887242100875</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.39439532482772</v>
       </c>
       <c r="K17">
-        <v>12.89866584573148</v>
+        <v>16.37130675607435</v>
       </c>
       <c r="L17">
-        <v>7.470176982837991</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.02883086347172</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.273045923838183</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.67228112289239</v>
+        <v>16.07238087528587</v>
       </c>
       <c r="C18">
-        <v>6.394556331087575</v>
+        <v>8.767944484585035</v>
       </c>
       <c r="D18">
-        <v>12.81221937323465</v>
+        <v>5.815723469617938</v>
       </c>
       <c r="E18">
-        <v>8.593879414965878</v>
+        <v>6.37245624187825</v>
       </c>
       <c r="F18">
-        <v>75.80161682308106</v>
+        <v>23.22440283976387</v>
       </c>
       <c r="G18">
-        <v>2.117742356240936</v>
+        <v>31.05110933165759</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.681068687912548</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.79646682007695</v>
       </c>
       <c r="K18">
-        <v>12.7122417650618</v>
+        <v>17.22101046345907</v>
       </c>
       <c r="L18">
-        <v>7.419727007718971</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.79409457418334</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.834873273473002</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.59157711142908</v>
+        <v>16.14597410175475</v>
       </c>
       <c r="C19">
-        <v>6.374097014578245</v>
+        <v>8.315119843839712</v>
       </c>
       <c r="D19">
-        <v>12.77699157173831</v>
+        <v>5.602666263168807</v>
       </c>
       <c r="E19">
-        <v>8.575460914263482</v>
+        <v>7.097737261533789</v>
       </c>
       <c r="F19">
-        <v>75.51944803227974</v>
+        <v>24.75995318809414</v>
       </c>
       <c r="G19">
-        <v>2.118754485781962</v>
+        <v>33.77962047508276</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.241840083863888</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.31986719801398</v>
       </c>
       <c r="K19">
-        <v>12.6488282238239</v>
+        <v>18.34388009341264</v>
       </c>
       <c r="L19">
-        <v>7.402706218817285</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.64776312821061</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.680849764645417</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.95349366089143</v>
+        <v>16.67491871225342</v>
       </c>
       <c r="C20">
-        <v>6.466125158041137</v>
+        <v>7.849141375731524</v>
       </c>
       <c r="D20">
-        <v>12.93526665343323</v>
+        <v>5.375499828683321</v>
       </c>
       <c r="E20">
-        <v>8.658474311037583</v>
+        <v>8.767262498546319</v>
       </c>
       <c r="F20">
-        <v>76.78550402781994</v>
+        <v>27.33741665907202</v>
       </c>
       <c r="G20">
-        <v>2.11420127407897</v>
+        <v>38.27134868579402</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.729737442644124</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.1570276727851</v>
       </c>
       <c r="K20">
-        <v>12.93303087540864</v>
+        <v>20.16212127873512</v>
       </c>
       <c r="L20">
-        <v>7.479543092728658</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.7604202522</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.17760802071925</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.14828243490391</v>
+        <v>17.71345650059935</v>
       </c>
       <c r="C21">
-        <v>6.775111008940573</v>
+        <v>8.138277902907195</v>
       </c>
       <c r="D21">
-        <v>13.46287766753443</v>
+        <v>5.428419210591833</v>
       </c>
       <c r="E21">
-        <v>8.939692575632931</v>
+        <v>9.26184949393935</v>
       </c>
       <c r="F21">
-        <v>80.97548574823892</v>
+        <v>28.38768477874583</v>
       </c>
       <c r="G21">
-        <v>2.098904548972537</v>
+        <v>39.865583009868</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.730653426793364</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.35893246937126</v>
       </c>
       <c r="K21">
-        <v>13.8684727049257</v>
+        <v>20.569826627381</v>
       </c>
       <c r="L21">
-        <v>7.742014512605899</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.52725491416924</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.656966261995828</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.91453778058195</v>
+        <v>18.35395397003683</v>
       </c>
       <c r="C22">
-        <v>6.977559511819669</v>
+        <v>8.346887468098821</v>
       </c>
       <c r="D22">
-        <v>13.80498852858204</v>
+        <v>5.472088485320931</v>
       </c>
       <c r="E22">
-        <v>9.125313286000097</v>
+        <v>9.494259983296358</v>
       </c>
       <c r="F22">
-        <v>83.66876776309959</v>
+        <v>28.96602378552207</v>
       </c>
       <c r="G22">
-        <v>2.088876067927532</v>
+        <v>40.71450545532632</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.929506117006563</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.45688214880308</v>
       </c>
       <c r="K22">
-        <v>14.46659841555232</v>
+        <v>20.75836872615704</v>
       </c>
       <c r="L22">
-        <v>7.916908413220409</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.01447089153347</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.894172816611995</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.50682400871507</v>
+        <v>18.01464666474772</v>
       </c>
       <c r="C23">
-        <v>6.869415800398233</v>
+        <v>8.236057498412814</v>
       </c>
       <c r="D23">
-        <v>13.62261656950563</v>
+        <v>5.448901723620221</v>
       </c>
       <c r="E23">
-        <v>9.026067585047716</v>
+        <v>9.370791098584379</v>
       </c>
       <c r="F23">
-        <v>82.23525388716493</v>
+        <v>28.65706541930927</v>
       </c>
       <c r="G23">
-        <v>2.094233535137568</v>
+        <v>40.2609937451078</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.823678061080796</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.40411355070115</v>
       </c>
       <c r="K23">
-        <v>14.14849301137857</v>
+        <v>20.65695097578818</v>
       </c>
       <c r="L23">
-        <v>7.823246017529531</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.75622814395776</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.768262080908562</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.93370138373922</v>
+        <v>16.67349964898568</v>
       </c>
       <c r="C24">
-        <v>6.461073792452781</v>
+        <v>7.80507907584246</v>
       </c>
       <c r="D24">
-        <v>12.92659149541708</v>
+        <v>5.358468342390826</v>
       </c>
       <c r="E24">
-        <v>8.653907145811797</v>
+        <v>8.890596546726503</v>
       </c>
       <c r="F24">
-        <v>76.71622327188236</v>
+        <v>27.49376494763671</v>
       </c>
       <c r="G24">
-        <v>2.114451232893283</v>
+        <v>38.55340952347957</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.708702233068724</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.21489769876422</v>
       </c>
       <c r="K24">
-        <v>12.91749992642111</v>
+        <v>20.28996649139661</v>
       </c>
       <c r="L24">
-        <v>7.475307637170962</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.73864445752821</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.276300965217546</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.41014214051723</v>
+        <v>15.10512872668987</v>
       </c>
       <c r="C25">
-        <v>6.018694315053163</v>
+        <v>7.316053497153755</v>
       </c>
       <c r="D25">
-        <v>12.1618646779019</v>
+        <v>5.255505253832061</v>
       </c>
       <c r="E25">
-        <v>8.259739600693354</v>
+        <v>8.345990660071385</v>
       </c>
       <c r="F25">
-        <v>70.5557895757569</v>
+        <v>26.25712028905432</v>
       </c>
       <c r="G25">
-        <v>2.136324496351662</v>
+        <v>36.7377001597077</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.175640940208706</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.03256176516668</v>
       </c>
       <c r="K25">
-        <v>11.5251038197662</v>
+        <v>19.92926944087117</v>
       </c>
       <c r="L25">
-        <v>7.113631862543624</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.55593465886488</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.714101305286237</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.84357529741722</v>
+        <v>13.75757904902738</v>
       </c>
       <c r="C2">
-        <v>6.935250105312065</v>
+        <v>7.091889626800308</v>
       </c>
       <c r="D2">
-        <v>5.175206104822751</v>
+        <v>5.198060737382355</v>
       </c>
       <c r="E2">
-        <v>7.922521438531287</v>
+        <v>7.68063532569986</v>
       </c>
       <c r="F2">
-        <v>25.36611209801755</v>
+        <v>23.52015882831042</v>
       </c>
       <c r="G2">
-        <v>35.4286661379596</v>
+        <v>31.849170556455</v>
       </c>
       <c r="H2">
-        <v>2.534741024200056</v>
+        <v>2.366537613150184</v>
       </c>
       <c r="J2">
-        <v>11.91599400773297</v>
+        <v>11.44315329153402</v>
       </c>
       <c r="K2">
-        <v>19.6923629232518</v>
+        <v>18.03896898088367</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.58780852300685</v>
       </c>
       <c r="M2">
-        <v>11.61149484108796</v>
+        <v>12.17425026192731</v>
       </c>
       <c r="N2">
-        <v>7.274004542965122</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.80946802479493</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.448181968926616</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.92101090123169</v>
+        <v>12.87025664417589</v>
       </c>
       <c r="C3">
-        <v>6.664426992430987</v>
+        <v>6.708907120995216</v>
       </c>
       <c r="D3">
-        <v>5.118080207757782</v>
+        <v>5.099755003587219</v>
       </c>
       <c r="E3">
-        <v>7.621916067134578</v>
+        <v>7.420561040815599</v>
       </c>
       <c r="F3">
-        <v>24.77665971560752</v>
+        <v>23.09424613534119</v>
       </c>
       <c r="G3">
-        <v>34.5619757768208</v>
+        <v>31.32963847927416</v>
       </c>
       <c r="H3">
-        <v>2.788233689811049</v>
+        <v>2.593153005543862</v>
       </c>
       <c r="J3">
-        <v>11.84748493217555</v>
+        <v>11.38320151332132</v>
       </c>
       <c r="K3">
-        <v>19.5488605160065</v>
+        <v>18.01848171332364</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.66176426686295</v>
       </c>
       <c r="M3">
-        <v>10.92556554948953</v>
+        <v>12.08307008038091</v>
       </c>
       <c r="N3">
-        <v>6.960168957634491</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.11443009589085</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.143651418378216</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.32089601249517</v>
+        <v>12.29303554854047</v>
       </c>
       <c r="C4">
-        <v>6.491970098089721</v>
+        <v>6.463910584687538</v>
       </c>
       <c r="D4">
-        <v>5.08170333211782</v>
+        <v>5.037890287215956</v>
       </c>
       <c r="E4">
-        <v>7.430824423254083</v>
+        <v>7.255275815966725</v>
       </c>
       <c r="F4">
-        <v>24.42261003882729</v>
+        <v>22.84047315393228</v>
       </c>
       <c r="G4">
-        <v>34.04100462306713</v>
+        <v>31.02769311772688</v>
       </c>
       <c r="H4">
-        <v>2.949056012056426</v>
+        <v>2.737052502245743</v>
       </c>
       <c r="J4">
-        <v>11.81040636388108</v>
+        <v>11.34843744790103</v>
       </c>
       <c r="K4">
-        <v>19.46886548508499</v>
+        <v>18.0122594289253</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.70797644355863</v>
       </c>
       <c r="M4">
-        <v>10.48189646846336</v>
+        <v>12.04903798430287</v>
       </c>
       <c r="N4">
-        <v>6.760120043882037</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.66491680163713</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.950009095261313</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.06783756291412</v>
+        <v>12.04964273562846</v>
       </c>
       <c r="C5">
-        <v>6.42016565950735</v>
+        <v>6.361657692569408</v>
       </c>
       <c r="D5">
-        <v>5.066557654241217</v>
+        <v>5.012318954030443</v>
       </c>
       <c r="E5">
-        <v>7.351351268554603</v>
+        <v>7.186542784856822</v>
       </c>
       <c r="F5">
-        <v>24.28043187482722</v>
+        <v>22.73903793952793</v>
       </c>
       <c r="G5">
-        <v>33.8316843762635</v>
+        <v>30.90888363362216</v>
       </c>
       <c r="H5">
-        <v>3.015919406361522</v>
+        <v>2.796908964058362</v>
       </c>
       <c r="J5">
-        <v>11.79652189655703</v>
+        <v>11.33477484617027</v>
       </c>
       <c r="K5">
-        <v>19.43826255115546</v>
+        <v>18.01126330221555</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.72700787855873</v>
       </c>
       <c r="M5">
-        <v>10.29547197432562</v>
+        <v>12.04064706112675</v>
       </c>
       <c r="N5">
-        <v>6.676810303551001</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.47606469064615</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.869493953209941</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02530237464957</v>
+        <v>12.00873348981561</v>
       </c>
       <c r="C6">
-        <v>6.40815121066038</v>
+        <v>6.344534894458222</v>
       </c>
       <c r="D6">
-        <v>5.064023452550422</v>
+        <v>5.008051578776353</v>
       </c>
       <c r="E6">
-        <v>7.338059294537884</v>
+        <v>7.175047456527027</v>
       </c>
       <c r="F6">
-        <v>24.25695356398133</v>
+        <v>22.72231511964518</v>
       </c>
       <c r="G6">
-        <v>33.79711172697048</v>
+        <v>30.88940946644023</v>
       </c>
       <c r="H6">
-        <v>3.027102888945981</v>
+        <v>2.806922117787488</v>
       </c>
       <c r="J6">
-        <v>11.79428954559991</v>
+        <v>11.33253631054368</v>
       </c>
       <c r="K6">
-        <v>19.43330012607721</v>
+        <v>18.01118916591208</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.73018002543497</v>
       </c>
       <c r="M6">
-        <v>10.26417782007498</v>
+        <v>12.03958277154981</v>
       </c>
       <c r="N6">
-        <v>6.662870755492308</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.44436520374255</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.856029828432304</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31751767785026</v>
+        <v>12.29116148852843</v>
       </c>
       <c r="C7">
-        <v>6.491007863398133</v>
+        <v>6.456265818523435</v>
       </c>
       <c r="D7">
-        <v>5.08150036787079</v>
+        <v>5.040304536513413</v>
       </c>
       <c r="E7">
-        <v>7.429759051627325</v>
+        <v>7.255494121740995</v>
       </c>
       <c r="F7">
-        <v>24.42068391595078</v>
+        <v>22.811853656324</v>
       </c>
       <c r="G7">
-        <v>34.03816937213367</v>
+        <v>31.08340083949831</v>
       </c>
       <c r="H7">
-        <v>2.94995234950986</v>
+        <v>2.738550232262917</v>
       </c>
       <c r="J7">
-        <v>11.81021419011479</v>
+        <v>11.30093208347179</v>
       </c>
       <c r="K7">
-        <v>19.46844474409847</v>
+        <v>17.99666084600624</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.6949124300366</v>
       </c>
       <c r="M7">
-        <v>10.47940500600281</v>
+        <v>12.03862891650735</v>
       </c>
       <c r="N7">
-        <v>6.759003652288197</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.66042816088192</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.948064989717888</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.53243372463339</v>
+        <v>13.46255725371519</v>
       </c>
       <c r="C8">
-        <v>6.843163911810881</v>
+        <v>6.942135352088013</v>
       </c>
       <c r="D8">
-        <v>5.155782374786747</v>
+        <v>5.173933452089755</v>
       </c>
       <c r="E8">
-        <v>7.820246032183229</v>
+        <v>7.595895409894118</v>
       </c>
       <c r="F8">
-        <v>25.16130624102593</v>
+        <v>23.28396504742142</v>
       </c>
       <c r="G8">
-        <v>35.12761236684545</v>
+        <v>31.85406457636618</v>
       </c>
       <c r="H8">
-        <v>2.621086383055782</v>
+        <v>2.445844702993805</v>
       </c>
       <c r="J8">
-        <v>11.89132034359542</v>
+        <v>11.26808808703602</v>
       </c>
       <c r="K8">
-        <v>19.64117233002074</v>
+        <v>17.97983709096552</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.57198857907585</v>
       </c>
       <c r="M8">
-        <v>11.37967315216112</v>
+        <v>12.10221734718305</v>
       </c>
       <c r="N8">
-        <v>7.167353379671623</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.56852715527916</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.341915352130878</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.64988667943433</v>
+        <v>15.49876598468661</v>
       </c>
       <c r="C9">
-        <v>7.484015838289981</v>
+        <v>7.838035167029587</v>
       </c>
       <c r="D9">
-        <v>5.290897540245307</v>
+        <v>5.413106250144953</v>
       </c>
       <c r="E9">
-        <v>8.53297382125335</v>
+        <v>8.213676091991022</v>
       </c>
       <c r="F9">
-        <v>26.67093286668908</v>
+        <v>24.37014638630546</v>
       </c>
       <c r="G9">
-        <v>37.34538270066039</v>
+        <v>33.2895719265705</v>
       </c>
       <c r="H9">
-        <v>2.016057083112364</v>
+        <v>1.906121604498437</v>
       </c>
       <c r="J9">
-        <v>12.09116452060312</v>
+        <v>11.39110785215687</v>
       </c>
       <c r="K9">
-        <v>20.04620991227653</v>
+        <v>18.05684165901265</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.38602418667287</v>
       </c>
       <c r="M9">
-        <v>12.96575301197782</v>
+        <v>12.43953482060412</v>
       </c>
       <c r="N9">
-        <v>7.907620699730654</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.17450355191358</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.062001378448588</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.02705042377124</v>
+        <v>16.83122242648526</v>
       </c>
       <c r="C10">
-        <v>7.973086912506953</v>
+        <v>8.462653180337478</v>
       </c>
       <c r="D10">
-        <v>5.403987920342062</v>
+        <v>5.620721495263881</v>
       </c>
       <c r="E10">
-        <v>8.85909027246192</v>
+        <v>8.490874408769859</v>
       </c>
       <c r="F10">
-        <v>27.59128892309171</v>
+        <v>24.88309179703102</v>
       </c>
       <c r="G10">
-        <v>38.62994100536246</v>
+        <v>34.41710230821497</v>
       </c>
       <c r="H10">
-        <v>1.630863167541958</v>
+        <v>1.579896020160283</v>
       </c>
       <c r="J10">
-        <v>12.18766033863364</v>
+        <v>11.17747195962882</v>
       </c>
       <c r="K10">
-        <v>20.21780477423867</v>
+        <v>17.93401336778741</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.09759694872966</v>
       </c>
       <c r="M10">
-        <v>14.03255648559807</v>
+        <v>12.62097196304711</v>
       </c>
       <c r="N10">
-        <v>8.279430138947044</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.24232882227745</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.416744327355945</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.45117596425173</v>
+        <v>17.28288156790533</v>
       </c>
       <c r="C11">
-        <v>8.638399680400829</v>
+        <v>9.094772160743982</v>
       </c>
       <c r="D11">
-        <v>5.659413884440942</v>
+        <v>5.968810593092297</v>
       </c>
       <c r="E11">
-        <v>7.71535542065484</v>
+        <v>7.422560113361154</v>
       </c>
       <c r="F11">
-        <v>26.14355717767884</v>
+        <v>23.33961144980936</v>
       </c>
       <c r="G11">
-        <v>35.90555774920223</v>
+        <v>32.70663474837507</v>
       </c>
       <c r="H11">
-        <v>2.680181351769052</v>
+        <v>2.65260956975217</v>
       </c>
       <c r="J11">
-        <v>11.57655268456752</v>
+        <v>10.19635235470122</v>
       </c>
       <c r="K11">
-        <v>18.86144216410438</v>
+        <v>16.6400353883174</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.09151688510765</v>
       </c>
       <c r="M11">
-        <v>14.59186072627529</v>
+        <v>11.70826691442278</v>
       </c>
       <c r="N11">
-        <v>7.328407640494891</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.76520597876941</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.444097267095399</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52994006124452</v>
+        <v>17.39053581978889</v>
       </c>
       <c r="C12">
-        <v>9.134342657202602</v>
+        <v>9.533172745444814</v>
       </c>
       <c r="D12">
-        <v>5.885400083384355</v>
+        <v>6.234242013198217</v>
       </c>
       <c r="E12">
-        <v>6.898666712186061</v>
+        <v>6.680283114157263</v>
       </c>
       <c r="F12">
-        <v>24.70385903261031</v>
+        <v>21.99684794829252</v>
       </c>
       <c r="G12">
-        <v>33.30040820230042</v>
+        <v>30.79122312307215</v>
       </c>
       <c r="H12">
-        <v>4.099023353178896</v>
+        <v>4.081370906921831</v>
       </c>
       <c r="J12">
-        <v>11.04013793453524</v>
+        <v>9.614110250043936</v>
       </c>
       <c r="K12">
-        <v>17.69523182922551</v>
+        <v>15.65603856514036</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.38609005413101</v>
       </c>
       <c r="M12">
-        <v>14.85112969204545</v>
+        <v>10.93944420362568</v>
       </c>
       <c r="N12">
-        <v>6.492105063549222</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.99773753380298</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.594966413371914</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.35060393198345</v>
+        <v>17.24079638237761</v>
       </c>
       <c r="C13">
-        <v>9.534263635286141</v>
+        <v>9.873886423000469</v>
       </c>
       <c r="D13">
-        <v>6.097205504538237</v>
+        <v>6.433650848886819</v>
       </c>
       <c r="E13">
-        <v>6.350742115540042</v>
+        <v>6.211275233731851</v>
       </c>
       <c r="F13">
-        <v>23.15677212251323</v>
+        <v>20.76188844764084</v>
       </c>
       <c r="G13">
-        <v>30.58456814111671</v>
+        <v>28.43098526165156</v>
       </c>
       <c r="H13">
-        <v>5.54652403093572</v>
+        <v>5.53008239509595</v>
       </c>
       <c r="J13">
-        <v>10.52811149994219</v>
+        <v>9.338107713698633</v>
       </c>
       <c r="K13">
-        <v>16.60875957603959</v>
+        <v>14.87719324515488</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.86637758161232</v>
       </c>
       <c r="M13">
-        <v>14.9026912373431</v>
+        <v>10.26805553993429</v>
       </c>
       <c r="N13">
-        <v>5.699868917089596</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.03128631495601</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.797995915198403</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.10609172556077</v>
+        <v>17.01769442895052</v>
       </c>
       <c r="C14">
-        <v>9.776465362535165</v>
+        <v>10.07379680816068</v>
       </c>
       <c r="D14">
-        <v>6.240763272960769</v>
+        <v>6.543024513374168</v>
       </c>
       <c r="E14">
-        <v>6.170198390747612</v>
+        <v>6.087055630614493</v>
       </c>
       <c r="F14">
-        <v>22.01919956522568</v>
+        <v>19.93647869074882</v>
       </c>
       <c r="G14">
-        <v>28.62716068405936</v>
+        <v>26.58440214359269</v>
       </c>
       <c r="H14">
-        <v>6.568091918869451</v>
+        <v>6.550654598315882</v>
       </c>
       <c r="J14">
-        <v>10.18490782644077</v>
+        <v>9.257746772963467</v>
       </c>
       <c r="K14">
-        <v>15.89972831381988</v>
+        <v>14.42753998191924</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.57997367792283</v>
       </c>
       <c r="M14">
-        <v>14.84599338066315</v>
+        <v>9.85102352399891</v>
       </c>
       <c r="N14">
-        <v>5.19019351636325</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.96537989486024</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.288840752796342</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99010841485884</v>
+        <v>16.90735818371596</v>
       </c>
       <c r="C15">
-        <v>9.811506991057158</v>
+        <v>10.09997872711801</v>
       </c>
       <c r="D15">
-        <v>6.268227686187242</v>
+        <v>6.552511042681483</v>
       </c>
       <c r="E15">
-        <v>6.150638343098227</v>
+        <v>6.082129010120619</v>
       </c>
       <c r="F15">
-        <v>21.72169816566457</v>
+        <v>19.75428280403511</v>
       </c>
       <c r="G15">
-        <v>28.131278551737</v>
+        <v>26.0600835519418</v>
       </c>
       <c r="H15">
-        <v>6.806488239500504</v>
+        <v>6.78801898550046</v>
       </c>
       <c r="J15">
-        <v>10.10734390117885</v>
+        <v>9.283904709615108</v>
       </c>
       <c r="K15">
-        <v>15.74434572292664</v>
+        <v>14.35295015619464</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.53682044851427</v>
       </c>
       <c r="M15">
-        <v>14.78700890785925</v>
+        <v>9.769704038137531</v>
       </c>
       <c r="N15">
-        <v>5.070724079158015</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.90583178522471</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.171270456287907</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45080370964496</v>
+        <v>16.37303072843615</v>
       </c>
       <c r="C16">
-        <v>9.546444793520575</v>
+        <v>9.847381935943055</v>
       </c>
       <c r="D16">
-        <v>6.173286474141122</v>
+        <v>6.381325546752374</v>
       </c>
       <c r="E16">
-        <v>6.08595671842414</v>
+        <v>6.030144980343966</v>
       </c>
       <c r="F16">
-        <v>21.58260224207337</v>
+        <v>19.94035201160082</v>
       </c>
       <c r="G16">
-        <v>28.03216547231732</v>
+        <v>25.51961865284655</v>
       </c>
       <c r="H16">
-        <v>6.61776330088921</v>
+        <v>6.590343472138723</v>
       </c>
       <c r="J16">
-        <v>10.1671713562716</v>
+        <v>9.699202212125298</v>
       </c>
       <c r="K16">
-        <v>15.8901411493978</v>
+        <v>14.65343610315967</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.77267591981209</v>
       </c>
       <c r="M16">
-        <v>14.3444200670354</v>
+        <v>9.93842735072279</v>
       </c>
       <c r="N16">
-        <v>5.036669036548537</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.47841708293638</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.153561935658033</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.16452956457361</v>
+        <v>16.08043249980905</v>
       </c>
       <c r="C17">
-        <v>9.203331522539262</v>
+        <v>9.526877183109269</v>
       </c>
       <c r="D17">
-        <v>6.021212029409082</v>
+        <v>6.198423677699164</v>
       </c>
       <c r="E17">
-        <v>6.0947186365919</v>
+        <v>6.015195522878244</v>
       </c>
       <c r="F17">
-        <v>22.09585826631601</v>
+        <v>20.50206239979753</v>
       </c>
       <c r="G17">
-        <v>29.01816673757277</v>
+        <v>26.17803052784859</v>
       </c>
       <c r="H17">
-        <v>5.902887242100875</v>
+        <v>5.866974110140111</v>
       </c>
       <c r="J17">
-        <v>10.39439532482772</v>
+        <v>10.04172631179997</v>
       </c>
       <c r="K17">
-        <v>16.37130675607435</v>
+        <v>15.11118286333292</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.11376299574447</v>
       </c>
       <c r="M17">
-        <v>14.02883086347172</v>
+        <v>10.26876133076862</v>
       </c>
       <c r="N17">
-        <v>5.273045923838183</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.17757257964877</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.401015728441669</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.07238087528587</v>
+        <v>15.96895506382968</v>
       </c>
       <c r="C18">
-        <v>8.767944484585035</v>
+        <v>9.131614132445705</v>
       </c>
       <c r="D18">
-        <v>5.815723469617938</v>
+        <v>5.984342729778306</v>
       </c>
       <c r="E18">
-        <v>6.37245624187825</v>
+        <v>6.230182240857695</v>
       </c>
       <c r="F18">
-        <v>23.22440283976387</v>
+        <v>21.49896443825744</v>
       </c>
       <c r="G18">
-        <v>31.05110933165759</v>
+        <v>27.81383684292644</v>
       </c>
       <c r="H18">
-        <v>4.681068687912548</v>
+        <v>4.634324715655189</v>
       </c>
       <c r="J18">
-        <v>10.79646682007695</v>
+        <v>10.43133160715433</v>
       </c>
       <c r="K18">
-        <v>17.22101046345907</v>
+        <v>15.80653855073959</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.62731971841375</v>
       </c>
       <c r="M18">
-        <v>13.79409457418334</v>
+        <v>10.80372728937358</v>
       </c>
       <c r="N18">
-        <v>5.834873273473002</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.96164049834619</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.970965934290203</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.14597410175475</v>
+        <v>16.01329918911683</v>
       </c>
       <c r="C19">
-        <v>8.315119843839712</v>
+        <v>8.724708482042164</v>
       </c>
       <c r="D19">
-        <v>5.602666263168807</v>
+        <v>5.770182952127271</v>
       </c>
       <c r="E19">
-        <v>7.097737261533789</v>
+        <v>6.868362260776922</v>
       </c>
       <c r="F19">
-        <v>24.75995318809414</v>
+        <v>22.78886548586615</v>
       </c>
       <c r="G19">
-        <v>33.77962047508276</v>
+        <v>30.06942220053509</v>
       </c>
       <c r="H19">
-        <v>3.241840083863888</v>
+        <v>3.17942407469597</v>
       </c>
       <c r="J19">
-        <v>11.31986719801398</v>
+        <v>10.86645221620234</v>
       </c>
       <c r="K19">
-        <v>18.34388009341264</v>
+        <v>16.68462977129018</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.27396132301243</v>
       </c>
       <c r="M19">
-        <v>13.64776312821061</v>
+        <v>11.49394785247883</v>
       </c>
       <c r="N19">
-        <v>6.680849764645417</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.83641833564112</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.822721825598896</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.67491871225342</v>
+        <v>16.48704986937299</v>
       </c>
       <c r="C20">
-        <v>7.849141375731524</v>
+        <v>8.323031897021423</v>
       </c>
       <c r="D20">
-        <v>5.375499828683321</v>
+        <v>5.556849725686996</v>
       </c>
       <c r="E20">
-        <v>8.767262498546319</v>
+        <v>8.4083050410569</v>
       </c>
       <c r="F20">
-        <v>27.33741665907202</v>
+        <v>24.82393618041085</v>
       </c>
       <c r="G20">
-        <v>38.27134868579402</v>
+        <v>33.90858336337654</v>
       </c>
       <c r="H20">
-        <v>1.729737442644124</v>
+        <v>1.653837544237281</v>
       </c>
       <c r="J20">
-        <v>12.1570276727851</v>
+        <v>11.38671991768799</v>
       </c>
       <c r="K20">
-        <v>20.16212127873512</v>
+        <v>18.00971219634697</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.20524217380422</v>
       </c>
       <c r="M20">
-        <v>13.7604202522</v>
+        <v>12.60399030160292</v>
       </c>
       <c r="N20">
-        <v>8.17760802071925</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.97537231459293</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.321706281252267</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.71345650059935</v>
+        <v>17.50499966533571</v>
       </c>
       <c r="C21">
-        <v>8.138277902907195</v>
+        <v>8.619509563476639</v>
       </c>
       <c r="D21">
-        <v>5.428419210591833</v>
+        <v>5.735253193464164</v>
       </c>
       <c r="E21">
-        <v>9.26184949393935</v>
+        <v>8.872604920977837</v>
       </c>
       <c r="F21">
-        <v>28.38768477874583</v>
+        <v>25.05614871932164</v>
       </c>
       <c r="G21">
-        <v>39.865583009868</v>
+        <v>36.30665685893661</v>
       </c>
       <c r="H21">
-        <v>1.730653426793364</v>
+        <v>1.758023273721714</v>
       </c>
       <c r="J21">
-        <v>12.35893246937126</v>
+        <v>10.52586056991186</v>
       </c>
       <c r="K21">
-        <v>20.569826627381</v>
+        <v>17.8566801711157</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.94115761973216</v>
       </c>
       <c r="M21">
-        <v>14.52725491416924</v>
+        <v>12.71359603104325</v>
       </c>
       <c r="N21">
-        <v>8.656966261995828</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.71860326429102</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.777421868342683</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.35395397003683</v>
+        <v>18.13572111883365</v>
       </c>
       <c r="C22">
-        <v>8.346887468098821</v>
+        <v>8.825537722777417</v>
       </c>
       <c r="D22">
-        <v>5.472088485320931</v>
+        <v>5.868456986554444</v>
       </c>
       <c r="E22">
-        <v>9.494259983296358</v>
+        <v>9.0936427253757</v>
       </c>
       <c r="F22">
-        <v>28.96602378552207</v>
+        <v>25.09424534905784</v>
       </c>
       <c r="G22">
-        <v>40.71450545532632</v>
+        <v>37.79990561870132</v>
       </c>
       <c r="H22">
-        <v>1.929506117006563</v>
+        <v>1.927225629127356</v>
       </c>
       <c r="J22">
-        <v>12.45688214880308</v>
+        <v>9.925040414090187</v>
       </c>
       <c r="K22">
-        <v>20.75836872615704</v>
+        <v>17.67652303932245</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.71293995847473</v>
       </c>
       <c r="M22">
-        <v>15.01447089153347</v>
+        <v>12.72898931604129</v>
       </c>
       <c r="N22">
-        <v>8.894172816611995</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.18797636841091</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.998800319413666</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.01464666474772</v>
+        <v>17.79891359481636</v>
       </c>
       <c r="C23">
-        <v>8.236057498412814</v>
+        <v>8.728864276426458</v>
       </c>
       <c r="D23">
-        <v>5.448901723620221</v>
+        <v>5.789040793933061</v>
       </c>
       <c r="E23">
-        <v>9.370791098584379</v>
+        <v>8.972997770190002</v>
       </c>
       <c r="F23">
-        <v>28.65706541930927</v>
+        <v>25.13573002486614</v>
       </c>
       <c r="G23">
-        <v>40.2609937451078</v>
+        <v>36.85942387509428</v>
       </c>
       <c r="H23">
-        <v>1.823678061080796</v>
+        <v>1.838309519484866</v>
       </c>
       <c r="J23">
-        <v>12.40411355070115</v>
+        <v>10.34291820886838</v>
       </c>
       <c r="K23">
-        <v>20.65695097578818</v>
+        <v>17.81020948252522</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.8606097776188</v>
       </c>
       <c r="M23">
-        <v>14.75622814395776</v>
+        <v>12.75070503987856</v>
       </c>
       <c r="N23">
-        <v>8.768262080908562</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.94291327974928</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.88295352247194</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.67349964898568</v>
+        <v>16.48271501814517</v>
       </c>
       <c r="C24">
-        <v>7.80507907584246</v>
+        <v>8.279597583289906</v>
       </c>
       <c r="D24">
-        <v>5.358468342390826</v>
+        <v>5.536348759204734</v>
       </c>
       <c r="E24">
-        <v>8.890596546726503</v>
+        <v>8.5243799687125</v>
       </c>
       <c r="F24">
-        <v>27.49376494763671</v>
+        <v>24.95944009188786</v>
       </c>
       <c r="G24">
-        <v>38.55340952347957</v>
+        <v>34.13572108537574</v>
       </c>
       <c r="H24">
-        <v>1.708702233068724</v>
+        <v>1.632814160200736</v>
       </c>
       <c r="J24">
-        <v>12.21489769876422</v>
+        <v>11.44132816464163</v>
       </c>
       <c r="K24">
-        <v>20.28996649139661</v>
+        <v>18.11399451523845</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.28430849810166</v>
       </c>
       <c r="M24">
-        <v>13.73864445752821</v>
+        <v>12.68270536053851</v>
       </c>
       <c r="N24">
-        <v>8.276300965217546</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.95570648591258</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.421284736015613</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.10512872668987</v>
+        <v>14.97347103955854</v>
       </c>
       <c r="C25">
-        <v>7.316053497153755</v>
+        <v>7.612353925811807</v>
       </c>
       <c r="D25">
-        <v>5.255505253832061</v>
+        <v>5.345717931938563</v>
       </c>
       <c r="E25">
-        <v>8.345990660071385</v>
+        <v>8.049975695935295</v>
       </c>
       <c r="F25">
-        <v>26.25712028905432</v>
+        <v>24.10609840203836</v>
       </c>
       <c r="G25">
-        <v>36.7377001597077</v>
+        <v>32.80825448137568</v>
       </c>
       <c r="H25">
-        <v>2.175640940208706</v>
+        <v>2.047487157001849</v>
       </c>
       <c r="J25">
-        <v>12.03256176516668</v>
+        <v>11.42048214600981</v>
       </c>
       <c r="K25">
-        <v>19.92926944087117</v>
+        <v>18.05116773714402</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.45186384788272</v>
       </c>
       <c r="M25">
-        <v>12.55593465886488</v>
+        <v>12.34569042044241</v>
       </c>
       <c r="N25">
-        <v>7.714101305286237</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.76203196893314</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.874516230030375</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
